--- a/biology/Médecine/Tubercule_infra-condylaire/Tubercule_infra-condylaire.xlsx
+++ b/biology/Médecine/Tubercule_infra-condylaire/Tubercule_infra-condylaire.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le tubercule infra-condylaire (ou tubercule de Gerdy) est un tubercule de l'épiphyse proximale du tibia. Son ancienne dénomination vient du chirurgien français Pierre Nicolas Gerdy (1797–1856).
 </t>
@@ -511,11 +523,13 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le tubercule infra-condylaire est une facette lisse située à l'avant de la face latérale du condyle latéral du tibia, juste en dessous de l'articulation du genou et adjacente à l'articulation tibio-fibulaire proximale.
 C'est le point d'insertion tibial du tractus ilio-tibial.
-Le nerf fibulaire commun[1] et le muscle tenseur du fascia lata passent à proximité..
+Le nerf fibulaire commun et le muscle tenseur du fascia lata passent à proximité..
 </t>
         </is>
       </c>
@@ -544,11 +558,13 @@
           <t>Aspect clinique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Il est utilisé comme site d'insertion d'une aiguille périostée par laquelle des fluides intramédullaires peuvent être perfusés chez les nouveau-nés.
-Il peut être fracturé en même temps que la tubérosité du tibia[2].
-Il a été utilisé comme source de greffes osseuses[3].
+Il peut être fracturé en même temps que la tubérosité du tibia.
+Il a été utilisé comme source de greffes osseuses.
 </t>
         </is>
       </c>
